--- a/output/1Y_P90_KFSDIV.xlsx
+++ b/output/1Y_P90_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.6308</v>
       </c>
       <c r="C2" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D2" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>940.663</v>
+        <v>938.782</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.3176</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E3" s="1">
-        <v>940.663</v>
+        <v>938.782</v>
       </c>
       <c r="F3" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="H3" s="1">
-        <v>9705.384400000001</v>
+        <v>9666.638499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9705.384400000001</v>
+        <v>9666.638499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0295</v>
+        <v>-0.0333</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>10.2392</v>
       </c>
       <c r="C4" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D4" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E4" s="1">
-        <v>1909.8806</v>
+        <v>1906.059</v>
       </c>
       <c r="F4" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="H4" s="1">
-        <v>19555.6497</v>
+        <v>19477.4455</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19555.6497</v>
+        <v>19477.4455</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.4719</v>
+        <v>10.4929</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0076</v>
+        <v>-0.009599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D5" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>2886.5194</v>
+        <v>2880.7464</v>
       </c>
       <c r="F5" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="H5" s="1">
-        <v>28804.2887</v>
+        <v>28689.3535</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28804.2887</v>
+        <v>28689.3535</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.3931</v>
+        <v>10.414</v>
       </c>
       <c r="M5" s="1">
         <v>0.25</v>
       </c>
       <c r="N5" s="1">
-        <v>429.7231</v>
+        <v>428.8633</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9570.276900000001</v>
+        <v>-9571.136699999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0254</v>
+        <v>-0.0267</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>10.1873</v>
       </c>
       <c r="C6" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D6" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E6" s="1">
-        <v>3888.6238</v>
+        <v>3880.8464</v>
       </c>
       <c r="F6" s="1">
-        <v>986.8871</v>
+        <v>984.9043</v>
       </c>
       <c r="H6" s="1">
-        <v>39614.5777</v>
+        <v>39456.1775</v>
       </c>
       <c r="I6" s="1">
-        <v>429.7231</v>
+        <v>428.8633</v>
       </c>
       <c r="J6" s="1">
-        <v>40044.3008</v>
+        <v>39885.0408</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.2864</v>
+        <v>10.307</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10053.7154</v>
+        <v>-10053.6079</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.032</v>
+        <v>0.0309</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>10.4058</v>
       </c>
       <c r="C7" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D7" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E7" s="1">
-        <v>4875.511</v>
+        <v>4865.7507</v>
       </c>
       <c r="F7" s="1">
-        <v>966.1646</v>
+        <v>964.2175999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>50733.5922</v>
+        <v>50530.8215</v>
       </c>
       <c r="I7" s="1">
-        <v>376.0077</v>
+        <v>375.2554</v>
       </c>
       <c r="J7" s="1">
-        <v>51109.6</v>
+        <v>50906.0769</v>
       </c>
       <c r="K7" s="1">
-        <v>50053.7154</v>
+        <v>50053.6079</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2664</v>
+        <v>10.2869</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10053.7154</v>
+        <v>-10053.6079</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0213</v>
+        <v>0.0205</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>10.2688</v>
       </c>
       <c r="C8" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D8" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E8" s="1">
-        <v>5841.6756</v>
+        <v>5829.9684</v>
       </c>
       <c r="F8" s="1">
-        <v>979.0546000000001</v>
+        <v>977.0839999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>59986.9981</v>
+        <v>59747.2649</v>
       </c>
       <c r="I8" s="1">
-        <v>322.2924</v>
+        <v>321.6475</v>
       </c>
       <c r="J8" s="1">
-        <v>60309.2904</v>
+        <v>60068.9124</v>
       </c>
       <c r="K8" s="1">
-        <v>60107.4308</v>
+        <v>60107.2158</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2894</v>
+        <v>10.31</v>
       </c>
       <c r="M8" s="1">
         <v>0.1</v>
       </c>
       <c r="N8" s="1">
-        <v>438.796</v>
+        <v>437.9176</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9614.919400000001</v>
+        <v>-9615.6903</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0131</v>
+        <v>-0.0137</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>10.4938</v>
       </c>
       <c r="C9" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D9" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E9" s="1">
-        <v>6820.7301</v>
+        <v>6807.0524</v>
       </c>
       <c r="F9" s="1">
-        <v>966.4254</v>
+        <v>964.4683</v>
       </c>
       <c r="H9" s="1">
-        <v>71575.3778</v>
+        <v>71288.8979</v>
       </c>
       <c r="I9" s="1">
-        <v>707.373</v>
+        <v>705.9571</v>
       </c>
       <c r="J9" s="1">
-        <v>72282.7507</v>
+        <v>71994.855</v>
       </c>
       <c r="K9" s="1">
-        <v>70161.1462</v>
+        <v>70160.82369999999</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2865</v>
+        <v>10.3071</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10141.4746</v>
+        <v>-10141.1914</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0281</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>10.5481</v>
       </c>
       <c r="C10" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D10" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E10" s="1">
-        <v>7787.1555</v>
+        <v>7771.5207</v>
       </c>
       <c r="F10" s="1">
-        <v>961.4503999999999</v>
+        <v>959.5042</v>
       </c>
       <c r="H10" s="1">
-        <v>82139.6949</v>
+        <v>81810.7981</v>
       </c>
       <c r="I10" s="1">
-        <v>565.8984</v>
+        <v>564.7657</v>
       </c>
       <c r="J10" s="1">
-        <v>82705.59329999999</v>
+        <v>82375.5638</v>
       </c>
       <c r="K10" s="1">
-        <v>80302.6208</v>
+        <v>80302.01519999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3122</v>
+        <v>10.3329</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10141.4746</v>
+        <v>-10141.1914</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0051</v>
+        <v>0.0046</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>10.3262</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E11" s="1">
-        <v>8748.6059</v>
+        <v>8731.024799999999</v>
       </c>
       <c r="F11" s="1">
-        <v>982.111</v>
+        <v>980.1188</v>
       </c>
       <c r="H11" s="1">
-        <v>90339.8538</v>
+        <v>89977.57640000001</v>
       </c>
       <c r="I11" s="1">
-        <v>424.4238</v>
+        <v>423.5743</v>
       </c>
       <c r="J11" s="1">
-        <v>90764.2776</v>
+        <v>90401.1507</v>
       </c>
       <c r="K11" s="1">
-        <v>90444.09540000001</v>
+        <v>90443.2066</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3381</v>
+        <v>10.3588</v>
       </c>
       <c r="M11" s="1">
         <v>0.25</v>
       </c>
       <c r="N11" s="1">
-        <v>1752.11</v>
+        <v>1748.5922</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8389.364600000001</v>
+        <v>-8392.5993</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0209</v>
+        <v>-0.0214</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>10.462</v>
       </c>
       <c r="C12" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D12" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E12" s="1">
-        <v>9730.716899999999</v>
+        <v>9711.143700000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1053.0997</v>
+        <v>1050.7953</v>
       </c>
       <c r="H12" s="1">
-        <v>101802.7598</v>
+        <v>101395.022</v>
       </c>
       <c r="I12" s="1">
-        <v>2035.0592</v>
+        <v>2030.975</v>
       </c>
       <c r="J12" s="1">
-        <v>103837.819</v>
+        <v>103425.997</v>
       </c>
       <c r="K12" s="1">
-        <v>100585.5699</v>
+        <v>100584.398</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3369</v>
+        <v>10.3576</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11017.5296</v>
+        <v>-11015.4875</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0305</v>
+        <v>0.0301</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>10.5775</v>
       </c>
       <c r="C13" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D13" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E13" s="1">
-        <v>10783.8166</v>
+        <v>10761.939</v>
       </c>
       <c r="F13" s="1">
-        <v>1041.6005</v>
+        <v>1039.3244</v>
       </c>
       <c r="H13" s="1">
-        <v>114065.8202</v>
+        <v>113606.2566</v>
       </c>
       <c r="I13" s="1">
-        <v>1017.5296</v>
+        <v>1015.4875</v>
       </c>
       <c r="J13" s="1">
-        <v>115083.3498</v>
+        <v>114621.7441</v>
       </c>
       <c r="K13" s="1">
-        <v>111603.0995</v>
+        <v>111599.8855</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3491</v>
+        <v>10.3699</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11017.5296</v>
+        <v>-11015.4875</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0109</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>10.7066</v>
       </c>
       <c r="C14" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D14" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E14" s="1">
-        <v>11825.4171</v>
+        <v>11801.2634</v>
       </c>
       <c r="F14" s="1">
-        <v>-11825.4171</v>
+        <v>-11801.2634</v>
       </c>
       <c r="H14" s="1">
-        <v>126610.0111</v>
+        <v>126098.8596</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>126610.0111</v>
+        <v>126098.8596</v>
       </c>
       <c r="K14" s="1">
-        <v>122620.6291</v>
+        <v>122615.373</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3692</v>
+        <v>10.39</v>
       </c>
       <c r="M14" s="1">
         <v>0.2</v>
       </c>
       <c r="N14" s="1">
-        <v>1941.087</v>
+        <v>1937.149</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128551.0981</v>
+        <v>128036.0086</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0122</v>
+        <v>0.0119</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>10.6308</v>
       </c>
       <c r="C2" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D2" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>940.663</v>
+        <v>938.782</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.3176</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E3" s="1">
-        <v>940.663</v>
+        <v>938.782</v>
       </c>
       <c r="F3" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9705.384400000001</v>
+        <v>9666.638499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9705.384400000001</v>
+        <v>9666.638499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0295</v>
+        <v>-0.0333</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>10.2392</v>
       </c>
       <c r="C4" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D4" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E4" s="1">
-        <v>1909.8806</v>
+        <v>1906.059</v>
       </c>
       <c r="F4" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19555.6497</v>
+        <v>19477.4455</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19555.6497</v>
+        <v>19477.4455</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.4719</v>
+        <v>10.4929</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0076</v>
+        <v>-0.009599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D5" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>2886.5194</v>
+        <v>2880.7464</v>
       </c>
       <c r="F5" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>28804.2887</v>
+        <v>28689.3535</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28804.2887</v>
+        <v>28689.3535</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.3931</v>
+        <v>10.414</v>
       </c>
       <c r="M5" s="1">
         <v>0.25</v>
       </c>
       <c r="N5" s="1">
-        <v>429.7231</v>
+        <v>428.8633</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9570.276900000001</v>
+        <v>-9571.136699999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0254</v>
+        <v>-0.0267</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>10.1873</v>
       </c>
       <c r="C6" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D6" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E6" s="1">
-        <v>3888.6238</v>
+        <v>3880.8464</v>
       </c>
       <c r="F6" s="1">
-        <v>1019.448</v>
+        <v>1021.6663</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>39614.5777</v>
+        <v>39456.1775</v>
       </c>
       <c r="I6" s="1">
-        <v>429.7231</v>
+        <v>428.8633</v>
       </c>
       <c r="J6" s="1">
-        <v>40044.3008</v>
+        <v>39885.0408</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.2864</v>
+        <v>10.307</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10385.4223</v>
+        <v>-10428.8633</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.032</v>
+        <v>0.0309</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>10.4058</v>
       </c>
       <c r="C7" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D7" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E7" s="1">
-        <v>4908.0718</v>
+        <v>4902.5127</v>
       </c>
       <c r="F7" s="1">
-        <v>857.9433</v>
+        <v>875.0511</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>51072.4137</v>
+        <v>50912.5948</v>
       </c>
       <c r="I7" s="1">
-        <v>44.3008</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>51116.7145</v>
+        <v>50912.5948</v>
       </c>
       <c r="K7" s="1">
-        <v>50385.4223</v>
+        <v>50428.8633</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2658</v>
+        <v>10.2863</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8927.586300000001</v>
+        <v>-9123.8948</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0214</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>10.2688</v>
       </c>
       <c r="C8" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D8" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E8" s="1">
-        <v>5766.0151</v>
+        <v>5777.5638</v>
       </c>
       <c r="F8" s="1">
-        <v>1050.7502</v>
+        <v>1052.8373</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>59210.0559</v>
+        <v>59210.207</v>
       </c>
       <c r="I8" s="1">
-        <v>1116.7145</v>
+        <v>876.1052</v>
       </c>
       <c r="J8" s="1">
-        <v>60326.7705</v>
+        <v>60086.3122</v>
       </c>
       <c r="K8" s="1">
-        <v>59313.0086</v>
+        <v>59552.7581</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2867</v>
+        <v>10.3076</v>
       </c>
       <c r="M8" s="1">
         <v>0.1</v>
       </c>
       <c r="N8" s="1">
-        <v>441.7265</v>
+        <v>441.2261</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10348.2176</v>
+        <v>-10391.8384</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0129</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>10.4938</v>
       </c>
       <c r="C9" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D9" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E9" s="1">
-        <v>6816.7653</v>
+        <v>6830.4011</v>
       </c>
       <c r="F9" s="1">
-        <v>806.7838</v>
+        <v>808.4347</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>71533.77220000001</v>
+        <v>71533.42509999999</v>
       </c>
       <c r="I9" s="1">
-        <v>768.4969</v>
+        <v>484.2667</v>
       </c>
       <c r="J9" s="1">
-        <v>72302.2691</v>
+        <v>72017.6918</v>
       </c>
       <c r="K9" s="1">
-        <v>70102.95269999999</v>
+        <v>70385.8227</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2839</v>
+        <v>10.3048</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8466.227800000001</v>
+        <v>-8500.529200000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0281</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>10.5481</v>
       </c>
       <c r="C10" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D10" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E10" s="1">
-        <v>7623.5491</v>
+        <v>7638.8358</v>
       </c>
       <c r="F10" s="1">
-        <v>908.7932</v>
+        <v>910.6084</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>80413.9587</v>
+        <v>80414.0249</v>
       </c>
       <c r="I10" s="1">
-        <v>2302.2691</v>
+        <v>1983.7375</v>
       </c>
       <c r="J10" s="1">
-        <v>82716.2279</v>
+        <v>82397.76240000001</v>
       </c>
       <c r="K10" s="1">
-        <v>78569.1805</v>
+        <v>78886.35189999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3061</v>
+        <v>10.327</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9586.041300000001</v>
+        <v>-9624.4028</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.005</v>
+        <v>0.0046</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>10.3262</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E11" s="1">
-        <v>8532.3423</v>
+        <v>8549.444299999999</v>
       </c>
       <c r="F11" s="1">
-        <v>1151.7622</v>
+        <v>1154.1121</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>88106.6732</v>
+        <v>88106.2981</v>
       </c>
       <c r="I11" s="1">
-        <v>2716.2279</v>
+        <v>2359.3348</v>
       </c>
       <c r="J11" s="1">
-        <v>90822.9011</v>
+        <v>90465.6329</v>
       </c>
       <c r="K11" s="1">
-        <v>88155.2218</v>
+        <v>88510.7547</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3319</v>
+        <v>10.3528</v>
       </c>
       <c r="M11" s="1">
         <v>0.25</v>
       </c>
       <c r="N11" s="1">
-        <v>1715.2986</v>
+        <v>1718.7381</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10178.0282</v>
+        <v>-10222.7441</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0204</v>
+        <v>-0.0209</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>10.462</v>
       </c>
       <c r="C12" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D12" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E12" s="1">
-        <v>9684.104499999999</v>
+        <v>9703.556399999999</v>
       </c>
       <c r="F12" s="1">
-        <v>830.1375</v>
+        <v>831.7320999999999</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>101315.1014</v>
+        <v>101315.8022</v>
       </c>
       <c r="I12" s="1">
-        <v>2538.1997</v>
+        <v>2136.5907</v>
       </c>
       <c r="J12" s="1">
-        <v>103853.301</v>
+        <v>103452.3929</v>
       </c>
       <c r="K12" s="1">
-        <v>100048.5485</v>
+        <v>100452.2368</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3312</v>
+        <v>10.3521</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8684.8986</v>
+        <v>-8719.0473</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0301</v>
+        <v>0.0297</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>10.5775</v>
       </c>
       <c r="C13" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D13" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E13" s="1">
-        <v>10514.242</v>
+        <v>10535.2884</v>
       </c>
       <c r="F13" s="1">
-        <v>830.5937</v>
+        <v>832.3309</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>111214.395</v>
+        <v>111213.6652</v>
       </c>
       <c r="I13" s="1">
-        <v>3853.301</v>
+        <v>3417.5434</v>
       </c>
       <c r="J13" s="1">
-        <v>115067.696</v>
+        <v>114631.2086</v>
       </c>
       <c r="K13" s="1">
-        <v>108733.4471</v>
+        <v>109171.2841</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3415</v>
+        <v>10.3624</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8785.605</v>
+        <v>-8821.625599999999</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0107</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>10.7066</v>
       </c>
       <c r="C14" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D14" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E14" s="1">
-        <v>11344.8357</v>
+        <v>11367.6193</v>
       </c>
       <c r="F14" s="1">
-        <v>-11344.8357</v>
+        <v>-11367.6193</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121464.6183</v>
+        <v>121465.2861</v>
       </c>
       <c r="I14" s="1">
-        <v>5067.696</v>
+        <v>4595.9177</v>
       </c>
       <c r="J14" s="1">
-        <v>126532.3143</v>
+        <v>126061.2039</v>
       </c>
       <c r="K14" s="1">
-        <v>117519.0522</v>
+        <v>117992.9097</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3588</v>
+        <v>10.3797</v>
       </c>
       <c r="M14" s="1">
         <v>0.2</v>
       </c>
       <c r="N14" s="1">
-        <v>1892.5636</v>
+        <v>1896.3519</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123357.1819</v>
+        <v>123361.638</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0117</v>
+        <v>0.0115</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>10.6308</v>
       </c>
       <c r="C2" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D2" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>940.663</v>
+        <v>938.782</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.3176</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E3" s="1">
-        <v>940.663</v>
+        <v>938.782</v>
       </c>
       <c r="F3" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9705.384400000001</v>
+        <v>9666.638499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9705.384400000001</v>
+        <v>9666.638499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0295</v>
+        <v>-0.0333</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>10.2392</v>
       </c>
       <c r="C4" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D4" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E4" s="1">
-        <v>1909.8806</v>
+        <v>1906.059</v>
       </c>
       <c r="F4" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19555.6497</v>
+        <v>19477.4455</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19555.6497</v>
+        <v>19477.4455</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.4719</v>
+        <v>10.4929</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0076</v>
+        <v>-0.009599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D5" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>2886.5194</v>
+        <v>2880.7464</v>
       </c>
       <c r="F5" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>28804.2887</v>
+        <v>28689.3535</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28804.2887</v>
+        <v>28689.3535</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.3931</v>
+        <v>10.414</v>
       </c>
       <c r="M5" s="1">
         <v>0.25</v>
       </c>
       <c r="N5" s="1">
-        <v>429.7231</v>
+        <v>428.8633</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9570.276900000001</v>
+        <v>-9571.136699999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0254</v>
+        <v>-0.0267</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>10.1873</v>
       </c>
       <c r="C6" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D6" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E6" s="1">
-        <v>3888.6238</v>
+        <v>3880.8464</v>
       </c>
       <c r="F6" s="1">
-        <v>1023.7966</v>
+        <v>1021.6663</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39614.5777</v>
+        <v>39456.1775</v>
       </c>
       <c r="I6" s="1">
-        <v>429.7231</v>
+        <v>428.8633</v>
       </c>
       <c r="J6" s="1">
-        <v>40044.3008</v>
+        <v>39885.0408</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.2864</v>
+        <v>10.307</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10429.7231</v>
+        <v>-10428.8633</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.032</v>
+        <v>0.0309</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>10.4058</v>
       </c>
       <c r="C7" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D7" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E7" s="1">
-        <v>4912.4204</v>
+        <v>4902.5127</v>
       </c>
       <c r="F7" s="1">
-        <v>926.1522</v>
+        <v>947.7539</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>51117.6647</v>
+        <v>50912.5948</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>51117.6647</v>
+        <v>50912.5948</v>
       </c>
       <c r="K7" s="1">
-        <v>50429.7231</v>
+        <v>50428.8633</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2658</v>
+        <v>10.2863</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9637.3541</v>
+        <v>-9881.945299999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0214</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>10.2688</v>
       </c>
       <c r="C8" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D8" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E8" s="1">
-        <v>5838.5726</v>
+        <v>5850.2666</v>
       </c>
       <c r="F8" s="1">
-        <v>1009.1389</v>
+        <v>983.3474</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>59955.1343</v>
+        <v>59955.2873</v>
       </c>
       <c r="I8" s="1">
-        <v>362.6459</v>
+        <v>118.0547</v>
       </c>
       <c r="J8" s="1">
-        <v>60317.7803</v>
+        <v>60073.342</v>
       </c>
       <c r="K8" s="1">
-        <v>60067.0772</v>
+        <v>60310.8086</v>
       </c>
       <c r="L8" s="1">
-        <v>10.288</v>
+        <v>10.3091</v>
       </c>
       <c r="M8" s="1">
         <v>0.1</v>
       </c>
       <c r="N8" s="1">
-        <v>442.1178</v>
+        <v>441.2261</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9920.5281</v>
+        <v>-9676.8285</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0131</v>
+        <v>-0.0138</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>10.4938</v>
       </c>
       <c r="C9" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D9" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E9" s="1">
-        <v>6847.7115</v>
+        <v>6833.614</v>
       </c>
       <c r="F9" s="1">
-        <v>910.5922</v>
+        <v>940.2465999999999</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>71858.5154</v>
+        <v>71567.07279999999</v>
       </c>
       <c r="I9" s="1">
-        <v>442.1178</v>
+        <v>441.2261</v>
       </c>
       <c r="J9" s="1">
-        <v>72300.6332</v>
+        <v>72008.29889999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70429.7231</v>
+        <v>70428.8633</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2851</v>
+        <v>10.3062</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9555.5725</v>
+        <v>-9886.5054</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0282</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>10.5481</v>
       </c>
       <c r="C10" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D10" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E10" s="1">
-        <v>7758.3037</v>
+        <v>7773.8607</v>
       </c>
       <c r="F10" s="1">
-        <v>946.6913</v>
+        <v>948.5824</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>81835.3637</v>
+        <v>81835.4311</v>
       </c>
       <c r="I10" s="1">
-        <v>886.5454</v>
+        <v>554.7207</v>
       </c>
       <c r="J10" s="1">
-        <v>82721.9091</v>
+        <v>82390.15180000001</v>
       </c>
       <c r="K10" s="1">
-        <v>79985.2956</v>
+        <v>80315.36870000001</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3096</v>
+        <v>10.3315</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9985.7945</v>
+        <v>-10025.7574</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0051</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>10.3262</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E11" s="1">
-        <v>8704.9951</v>
+        <v>8722.4431</v>
       </c>
       <c r="F11" s="1">
-        <v>1055.6401</v>
+        <v>1017.5959</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>89889.5199</v>
+        <v>89889.13710000001</v>
       </c>
       <c r="I11" s="1">
-        <v>900.7508</v>
+        <v>528.9634</v>
       </c>
       <c r="J11" s="1">
-        <v>90790.27069999999</v>
+        <v>90418.1005</v>
       </c>
       <c r="K11" s="1">
-        <v>89971.09020000001</v>
+        <v>90341.12609999999</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3356</v>
+        <v>10.3573</v>
       </c>
       <c r="M11" s="1">
         <v>0.25</v>
       </c>
       <c r="N11" s="1">
-        <v>1745.6183</v>
+        <v>1749.1186</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9155.1325</v>
+        <v>-8779.8447</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0208</v>
+        <v>-0.0213</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>10.462</v>
       </c>
       <c r="C12" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D12" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E12" s="1">
-        <v>9760.635200000001</v>
+        <v>9740.039000000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1020.4455</v>
+        <v>1062.6221</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>102115.765</v>
+        <v>101696.7213</v>
       </c>
       <c r="I12" s="1">
-        <v>1745.6183</v>
+        <v>1749.1186</v>
       </c>
       <c r="J12" s="1">
-        <v>103861.3833</v>
+        <v>103445.84</v>
       </c>
       <c r="K12" s="1">
-        <v>100871.841</v>
+        <v>100870.0894</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3346</v>
+        <v>10.3562</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10675.9005</v>
+        <v>-11139.4679</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0305</v>
+        <v>0.0302</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>10.5775</v>
       </c>
       <c r="C13" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D13" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E13" s="1">
-        <v>10781.0806</v>
+        <v>10802.6612</v>
       </c>
       <c r="F13" s="1">
-        <v>880.9968</v>
+        <v>882.837</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>114036.8802</v>
+        <v>114036.132</v>
       </c>
       <c r="I13" s="1">
-        <v>1069.7179</v>
+        <v>609.6507</v>
       </c>
       <c r="J13" s="1">
-        <v>115106.5981</v>
+        <v>114645.7827</v>
       </c>
       <c r="K13" s="1">
-        <v>111547.7414</v>
+        <v>112009.5574</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3466</v>
+        <v>10.3687</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9318.7435</v>
+        <v>-9356.924000000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0109</v>
+        <v>0.0106</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>10.7066</v>
       </c>
       <c r="C14" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D14" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E14" s="1">
-        <v>11662.0774</v>
+        <v>11685.4981</v>
       </c>
       <c r="F14" s="1">
-        <v>-11662.0774</v>
+        <v>-11685.4981</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124861.1979</v>
+        <v>124861.8844</v>
       </c>
       <c r="I14" s="1">
-        <v>1750.9744</v>
+        <v>1252.7267</v>
       </c>
       <c r="J14" s="1">
-        <v>126612.1723</v>
+        <v>126114.6111</v>
       </c>
       <c r="K14" s="1">
-        <v>120866.4849</v>
+        <v>121366.4814</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3641</v>
+        <v>10.3861</v>
       </c>
       <c r="M14" s="1">
         <v>0.2</v>
       </c>
       <c r="N14" s="1">
-        <v>1940.5945</v>
+        <v>1944.479</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126801.7924</v>
+        <v>126806.3634</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.012</v>
+        <v>0.0118</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.6308</v>
       </c>
       <c r="C2" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D2" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>940.663</v>
+        <v>938.782</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.3176</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E3" s="1">
-        <v>940.663</v>
+        <v>938.782</v>
       </c>
       <c r="F3" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9705.384400000001</v>
+        <v>9666.638499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9705.384400000001</v>
+        <v>9666.638499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0295</v>
+        <v>-0.0333</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>10.2392</v>
       </c>
       <c r="C4" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D4" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E4" s="1">
-        <v>1909.8806</v>
+        <v>1906.059</v>
       </c>
       <c r="F4" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19555.6497</v>
+        <v>19477.4455</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19555.6497</v>
+        <v>19477.4455</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.4719</v>
+        <v>10.4929</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0076</v>
+        <v>-0.009599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D5" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>2886.5194</v>
+        <v>2880.7464</v>
       </c>
       <c r="F5" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>28804.2887</v>
+        <v>28689.3535</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28804.2887</v>
+        <v>28689.3535</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.3931</v>
+        <v>10.414</v>
       </c>
       <c r="M5" s="1">
         <v>0.25</v>
       </c>
       <c r="N5" s="1">
-        <v>429.7231</v>
+        <v>428.8633</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9570.276900000001</v>
+        <v>-9571.136699999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0254</v>
+        <v>-0.0267</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>10.1873</v>
       </c>
       <c r="C6" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D6" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E6" s="1">
-        <v>3888.6238</v>
+        <v>3880.8464</v>
       </c>
       <c r="F6" s="1">
-        <v>1023.7966</v>
+        <v>1021.6663</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39614.5777</v>
+        <v>39456.1775</v>
       </c>
       <c r="I6" s="1">
-        <v>429.7231</v>
+        <v>428.8633</v>
       </c>
       <c r="J6" s="1">
-        <v>40044.3008</v>
+        <v>39885.0408</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.2864</v>
+        <v>10.307</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10429.7231</v>
+        <v>-10428.8633</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.032</v>
+        <v>0.0309</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>10.4058</v>
       </c>
       <c r="C7" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D7" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E7" s="1">
-        <v>4912.4204</v>
+        <v>4902.5127</v>
       </c>
       <c r="F7" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>51117.6647</v>
+        <v>50912.5948</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>51117.6647</v>
+        <v>50912.5948</v>
       </c>
       <c r="K7" s="1">
-        <v>50429.7231</v>
+        <v>50428.8633</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2658</v>
+        <v>10.2863</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0214</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>10.2688</v>
       </c>
       <c r="C8" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D8" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E8" s="1">
-        <v>5873.423</v>
+        <v>5861.589</v>
       </c>
       <c r="F8" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>60313.0058</v>
+        <v>60071.3221</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>60313.0058</v>
+        <v>60071.3221</v>
       </c>
       <c r="K8" s="1">
-        <v>60429.7231</v>
+        <v>60428.8633</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2887</v>
+        <v>10.3093</v>
       </c>
       <c r="M8" s="1">
         <v>0.1</v>
       </c>
       <c r="N8" s="1">
-        <v>442.1178</v>
+        <v>441.2261</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9557.8822</v>
+        <v>-9558.7739</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0132</v>
+        <v>-0.0138</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>10.4938</v>
       </c>
       <c r="C9" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D9" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E9" s="1">
-        <v>6847.2466</v>
+        <v>6833.4629</v>
       </c>
       <c r="F9" s="1">
-        <v>995.075</v>
+        <v>993.0028</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>71853.6363</v>
+        <v>71565.4905</v>
       </c>
       <c r="I9" s="1">
-        <v>442.1178</v>
+        <v>441.2261</v>
       </c>
       <c r="J9" s="1">
-        <v>72295.75410000001</v>
+        <v>72006.7167</v>
       </c>
       <c r="K9" s="1">
-        <v>70429.7231</v>
+        <v>70428.8633</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2858</v>
+        <v>10.3065</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10442.1178</v>
+        <v>-10441.2261</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0282</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>10.5481</v>
       </c>
       <c r="C10" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D10" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E10" s="1">
-        <v>7842.3216</v>
+        <v>7826.4658</v>
       </c>
       <c r="F10" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>82721.5922</v>
+        <v>82389.205</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>82721.5922</v>
+        <v>82389.205</v>
       </c>
       <c r="K10" s="1">
-        <v>80871.841</v>
+        <v>80870.0894</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3122</v>
+        <v>10.3329</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0052</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>10.3262</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E11" s="1">
-        <v>8790.3596</v>
+        <v>8772.611199999999</v>
       </c>
       <c r="F11" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>90771.0114</v>
+        <v>90406.1443</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>90771.0114</v>
+        <v>90406.1443</v>
       </c>
       <c r="K11" s="1">
-        <v>90871.841</v>
+        <v>90870.0894</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3377</v>
+        <v>10.3584</v>
       </c>
       <c r="M11" s="1">
         <v>0.25</v>
       </c>
       <c r="N11" s="1">
-        <v>1764.5224</v>
+        <v>1760.9548</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8235.4776</v>
+        <v>-8239.0452</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.021</v>
+        <v>-0.0215</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>10.462</v>
       </c>
       <c r="C12" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D12" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E12" s="1">
-        <v>9758.7701</v>
+        <v>9739.084199999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1124.5003</v>
+        <v>1121.9074</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>102096.2523</v>
+        <v>101686.7521</v>
       </c>
       <c r="I12" s="1">
-        <v>1764.5224</v>
+        <v>1760.9548</v>
       </c>
       <c r="J12" s="1">
-        <v>103860.7747</v>
+        <v>103447.7069</v>
       </c>
       <c r="K12" s="1">
-        <v>100871.841</v>
+        <v>100870.0894</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3365</v>
+        <v>10.3572</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11764.5224</v>
+        <v>-11760.9548</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0307</v>
+        <v>0.0303</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>10.5775</v>
       </c>
       <c r="C13" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D13" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E13" s="1">
-        <v>10883.2704</v>
+        <v>10860.9916</v>
       </c>
       <c r="F13" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>115117.7924</v>
+        <v>114651.8852</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>115117.7924</v>
+        <v>114651.8852</v>
       </c>
       <c r="K13" s="1">
-        <v>112636.3633</v>
+        <v>112631.0442</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3495</v>
+        <v>10.3702</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.011</v>
+        <v>0.0106</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>10.7066</v>
       </c>
       <c r="C14" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D14" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E14" s="1">
-        <v>11828.6734</v>
+        <v>11804.5035</v>
       </c>
       <c r="F14" s="1">
-        <v>-11828.6734</v>
+        <v>-11804.5035</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>126644.8741</v>
+        <v>126133.4808</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>126644.8741</v>
+        <v>126133.4808</v>
       </c>
       <c r="K14" s="1">
-        <v>122636.3633</v>
+        <v>122631.0442</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3677</v>
+        <v>10.3885</v>
       </c>
       <c r="M14" s="1">
         <v>0.2</v>
       </c>
       <c r="N14" s="1">
-        <v>1958.9887</v>
+        <v>1954.9785</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128603.8628</v>
+        <v>128088.4593</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0122</v>
+        <v>0.0119</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.6308</v>
       </c>
       <c r="C2" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D2" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>940.663</v>
+        <v>938.782</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.3176</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E3" s="1">
-        <v>940.663</v>
+        <v>938.782</v>
       </c>
       <c r="F3" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9705.384400000001</v>
+        <v>9666.638499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9705.384400000001</v>
+        <v>9666.638499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0295</v>
+        <v>-0.0333</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>10.2392</v>
       </c>
       <c r="C4" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D4" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E4" s="1">
-        <v>1909.8806</v>
+        <v>1906.059</v>
       </c>
       <c r="F4" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19555.6497</v>
+        <v>19477.4455</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19555.6497</v>
+        <v>19477.4455</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.4719</v>
+        <v>10.4929</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0076</v>
+        <v>-0.009599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D5" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>2886.5194</v>
+        <v>2880.7464</v>
       </c>
       <c r="F5" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>28804.2887</v>
+        <v>28689.3535</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28804.2887</v>
+        <v>28689.3535</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.3931</v>
+        <v>10.414</v>
       </c>
       <c r="M5" s="1">
         <v>0.25</v>
       </c>
       <c r="N5" s="1">
-        <v>429.7231</v>
+        <v>428.8633</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9570.276900000001</v>
+        <v>-9571.136699999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0254</v>
+        <v>-0.0267</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>10.1873</v>
       </c>
       <c r="C6" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D6" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E6" s="1">
-        <v>3888.6238</v>
+        <v>3880.8464</v>
       </c>
       <c r="F6" s="1">
-        <v>1023.7966</v>
+        <v>1021.6663</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39614.5777</v>
+        <v>39456.1775</v>
       </c>
       <c r="I6" s="1">
-        <v>429.7231</v>
+        <v>428.8633</v>
       </c>
       <c r="J6" s="1">
-        <v>40044.3008</v>
+        <v>39885.0408</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.2864</v>
+        <v>10.307</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10429.7231</v>
+        <v>-10428.8633</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.032</v>
+        <v>0.0309</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>10.4058</v>
       </c>
       <c r="C7" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D7" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E7" s="1">
-        <v>4912.4204</v>
+        <v>4902.5127</v>
       </c>
       <c r="F7" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>51117.6647</v>
+        <v>50912.5948</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>51117.6647</v>
+        <v>50912.5948</v>
       </c>
       <c r="K7" s="1">
-        <v>50429.7231</v>
+        <v>50428.8633</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2658</v>
+        <v>10.2863</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0214</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>10.2688</v>
       </c>
       <c r="C8" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D8" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E8" s="1">
-        <v>5873.423</v>
+        <v>5861.589</v>
       </c>
       <c r="F8" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>60313.0058</v>
+        <v>60071.3221</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>60313.0058</v>
+        <v>60071.3221</v>
       </c>
       <c r="K8" s="1">
-        <v>60429.7231</v>
+        <v>60428.8633</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2887</v>
+        <v>10.3093</v>
       </c>
       <c r="M8" s="1">
         <v>0.1</v>
       </c>
       <c r="N8" s="1">
-        <v>442.1178</v>
+        <v>441.2261</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9557.8822</v>
+        <v>-9558.7739</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0132</v>
+        <v>-0.0138</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>10.4938</v>
       </c>
       <c r="C9" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D9" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E9" s="1">
-        <v>6847.2466</v>
+        <v>6833.4629</v>
       </c>
       <c r="F9" s="1">
-        <v>995.075</v>
+        <v>993.0028</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>71853.6363</v>
+        <v>71565.4905</v>
       </c>
       <c r="I9" s="1">
-        <v>442.1178</v>
+        <v>441.2261</v>
       </c>
       <c r="J9" s="1">
-        <v>72295.75410000001</v>
+        <v>72006.7167</v>
       </c>
       <c r="K9" s="1">
-        <v>70429.7231</v>
+        <v>70428.8633</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2858</v>
+        <v>10.3065</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10442.1178</v>
+        <v>-10441.2261</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0282</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>10.5481</v>
       </c>
       <c r="C10" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D10" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E10" s="1">
-        <v>7842.3216</v>
+        <v>7826.4658</v>
       </c>
       <c r="F10" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>82721.5922</v>
+        <v>82389.205</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>82721.5922</v>
+        <v>82389.205</v>
       </c>
       <c r="K10" s="1">
-        <v>80871.841</v>
+        <v>80870.0894</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3122</v>
+        <v>10.3329</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0052</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>10.3262</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E11" s="1">
-        <v>8790.3596</v>
+        <v>8772.611199999999</v>
       </c>
       <c r="F11" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>90771.0114</v>
+        <v>90406.1443</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>90771.0114</v>
+        <v>90406.1443</v>
       </c>
       <c r="K11" s="1">
-        <v>90871.841</v>
+        <v>90870.0894</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3377</v>
+        <v>10.3584</v>
       </c>
       <c r="M11" s="1">
         <v>0.25</v>
       </c>
       <c r="N11" s="1">
-        <v>1764.5224</v>
+        <v>1760.9548</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8235.4776</v>
+        <v>-8239.0452</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.021</v>
+        <v>-0.0215</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>10.462</v>
       </c>
       <c r="C12" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D12" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E12" s="1">
-        <v>9758.7701</v>
+        <v>9739.084199999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1124.5003</v>
+        <v>1121.9074</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>102096.2523</v>
+        <v>101686.7521</v>
       </c>
       <c r="I12" s="1">
-        <v>1764.5224</v>
+        <v>1760.9548</v>
       </c>
       <c r="J12" s="1">
-        <v>103860.7747</v>
+        <v>103447.7069</v>
       </c>
       <c r="K12" s="1">
-        <v>100871.841</v>
+        <v>100870.0894</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3365</v>
+        <v>10.3572</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11764.5224</v>
+        <v>-11760.9548</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0307</v>
+        <v>0.0303</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>10.5775</v>
       </c>
       <c r="C13" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D13" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E13" s="1">
-        <v>10883.2704</v>
+        <v>10860.9916</v>
       </c>
       <c r="F13" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>115117.7924</v>
+        <v>114651.8852</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>115117.7924</v>
+        <v>114651.8852</v>
       </c>
       <c r="K13" s="1">
-        <v>112636.3633</v>
+        <v>112631.0442</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3495</v>
+        <v>10.3702</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.011</v>
+        <v>0.0106</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>10.7066</v>
       </c>
       <c r="C14" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D14" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E14" s="1">
-        <v>11828.6734</v>
+        <v>11804.5035</v>
       </c>
       <c r="F14" s="1">
-        <v>-11828.6734</v>
+        <v>-11804.5035</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>126644.8741</v>
+        <v>126133.4808</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>126644.8741</v>
+        <v>126133.4808</v>
       </c>
       <c r="K14" s="1">
-        <v>122636.3633</v>
+        <v>122631.0442</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3677</v>
+        <v>10.3885</v>
       </c>
       <c r="M14" s="1">
         <v>0.2</v>
       </c>
       <c r="N14" s="1">
-        <v>1958.9887</v>
+        <v>1954.9785</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128603.8628</v>
+        <v>128088.4593</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0122</v>
+        <v>0.0119</v>
       </c>
     </row>
   </sheetData>
@@ -4450,11 +4450,11 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3692</v>
+        <v>10.39</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3588</v>
+        <v>10.3797</v>
       </c>
       <c r="E3" s="1">
-        <v>10.3641</v>
+        <v>10.3861</v>
       </c>
       <c r="F3" s="1">
-        <v>10.3677</v>
+        <v>10.3885</v>
       </c>
       <c r="G3" s="1">
-        <v>10.3677</v>
+        <v>10.3885</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0091</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0436</v>
+        <v>0.0312</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0431</v>
+        <v>0.0311</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0438</v>
+        <v>0.0315</v>
       </c>
       <c r="F4" s="3">
-        <v>0.044</v>
+        <v>0.0316</v>
       </c>
       <c r="G4" s="3">
-        <v>0.044</v>
+        <v>0.0316</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.0635</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0742</v>
+        <v>0.0761</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0738</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0743</v>
+        <v>0.0762</v>
       </c>
       <c r="F5" s="3">
-        <v>0.07439999999999999</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="G5" s="3">
-        <v>0.07439999999999999</v>
+        <v>0.07630000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.1764</v>
       </c>
       <c r="C6" s="4">
-        <v>0.3133</v>
+        <v>0.1431</v>
       </c>
       <c r="D6" s="4">
-        <v>0.3087</v>
+        <v>0.1425</v>
       </c>
       <c r="E6" s="4">
-        <v>0.3156</v>
+        <v>0.1463</v>
       </c>
       <c r="F6" s="4">
-        <v>0.3181</v>
+        <v>0.148</v>
       </c>
       <c r="G6" s="4">
-        <v>0.3181</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1352</v>
+        <v>0.1269</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1354</v>
+        <v>0.1273</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1355</v>
+        <v>0.1272</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1354</v>
+        <v>0.1272</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1354</v>
+        <v>0.1272</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4561.7161</v>
+        <v>4552.522</v>
       </c>
       <c r="D8" s="1">
-        <v>4479.3117</v>
+        <v>4485.1794</v>
       </c>
       <c r="E8" s="1">
-        <v>4558.0538</v>
+        <v>4563.6871</v>
       </c>
       <c r="F8" s="1">
-        <v>4595.352</v>
+        <v>4586.0227</v>
       </c>
       <c r="G8" s="1">
-        <v>4595.352</v>
+        <v>4586.0227</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P90_KFSDIV.xlsx
+++ b/output/1Y_P90_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>5292.1637</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0284</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0727</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0436</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0286</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0286</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
